--- a/1. Inicio/1.1.4 Gestión de los Interesados.xlsx
+++ b/1. Inicio/1.1.4 Gestión de los Interesados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\intec\OneDrive\Escritorio\intecTroquian\1. Inicio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E1970B-72F2-4D56-92C3-E55483B8E3A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37866E05-AECA-4E32-B54F-558781543DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -69,33 +69,6 @@
     <t>Julián Espina</t>
   </si>
   <si>
-    <t>Gabriel Muñoz</t>
-  </si>
-  <si>
-    <t>Brad Pinto</t>
-  </si>
-  <si>
-    <t>Manuel Ávila</t>
-  </si>
-  <si>
-    <t>David Galdames</t>
-  </si>
-  <si>
-    <t>Rodrigo Becerra</t>
-  </si>
-  <si>
-    <t>Gabriel Martínez</t>
-  </si>
-  <si>
-    <t>Cristian Toro</t>
-  </si>
-  <si>
-    <t>Paola Garay</t>
-  </si>
-  <si>
-    <t>Ana Saldias</t>
-  </si>
-  <si>
     <t>Clasificación interno / Externo</t>
   </si>
   <si>
@@ -156,9 +129,6 @@
     <t>Externo</t>
   </si>
   <si>
-    <t>Paula Muñoz</t>
-  </si>
-  <si>
     <t>Estudiante Duoc</t>
   </si>
   <si>
@@ -166,6 +136,36 @@
   </si>
   <si>
     <t>Stakeholder Aprobador</t>
+  </si>
+  <si>
+    <t>G.M</t>
+  </si>
+  <si>
+    <t>B.P</t>
+  </si>
+  <si>
+    <t>M.A</t>
+  </si>
+  <si>
+    <t>D.G</t>
+  </si>
+  <si>
+    <t>R.B</t>
+  </si>
+  <si>
+    <t>P.M</t>
+  </si>
+  <si>
+    <t>G.Mar</t>
+  </si>
+  <si>
+    <t>C.T</t>
+  </si>
+  <si>
+    <t>P.G</t>
+  </si>
+  <si>
+    <t>A.S</t>
   </si>
 </sst>
 </file>
@@ -669,8 +669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,7 +734,7 @@
         <v>10</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="15" x14ac:dyDescent="0.3">
@@ -742,22 +742,22 @@
         <v>4</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="15" x14ac:dyDescent="0.3">
@@ -765,22 +765,22 @@
         <v>11</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15" x14ac:dyDescent="0.3">
@@ -788,257 +788,257 @@
         <v>12</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="H14" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="H15" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G18" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="H18" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="15" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="G20" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
@@ -1046,10 +1046,10 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>0</v>
